--- a/data/beds-vents-1027.xlsx
+++ b/data/beds-vents-1027.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
   <si>
     <t>DATE</t>
   </si>
@@ -1883,6 +1883,9 @@
   </si>
   <si>
     <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O609"/>
+  <dimension ref="A1:O610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30041,6 +30044,53 @@
         <v>71.47</v>
       </c>
     </row>
+    <row r="610" spans="1:15">
+      <c r="A610" t="s">
+        <v>623</v>
+      </c>
+      <c r="B610">
+        <v>2246</v>
+      </c>
+      <c r="C610">
+        <v>364</v>
+      </c>
+      <c r="D610">
+        <v>1323</v>
+      </c>
+      <c r="E610">
+        <v>559</v>
+      </c>
+      <c r="F610">
+        <v>2789</v>
+      </c>
+      <c r="G610">
+        <v>183</v>
+      </c>
+      <c r="H610">
+        <v>613</v>
+      </c>
+      <c r="I610">
+        <v>1993</v>
+      </c>
+      <c r="J610">
+        <v>16.21</v>
+      </c>
+      <c r="K610">
+        <v>58.9</v>
+      </c>
+      <c r="L610">
+        <v>24.89</v>
+      </c>
+      <c r="M610">
+        <v>6.56</v>
+      </c>
+      <c r="N610">
+        <v>21.98</v>
+      </c>
+      <c r="O610">
+        <v>71.45999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
